--- a/greenweez_categories.xlsx
+++ b/greenweez_categories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\python projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E7CCA-9F2E-4163-9966-65F198816354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A89513-18DE-4B41-8F4E-EED3E1C4757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>links</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>https://www.greenweez.com/produits-d-entretien-c2283</t>
+  </si>
+  <si>
+    <t>https://www.greenweez.com/frais-traiteur-c4023</t>
+  </si>
+  <si>
+    <t>https://www.greenweez.com/maison-et-cuisine-saine-c694</t>
+  </si>
+  <si>
+    <t>https://www.greenweez.com/jardin-et-exterieur-c28</t>
+  </si>
+  <si>
+    <t>https://www.greenweez.com/reconditionne-c8118</t>
   </si>
 </sst>
 </file>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +437,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
